--- a/data/States.xlsx
+++ b/data/States.xlsx
@@ -1216,7 +1216,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,51 +1224,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1276,62 +1276,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1339,18 +1339,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1374,210 +1374,210 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>88</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1601,172 +1601,172 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>101</v>
       </c>
       <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>104</v>
       </c>
       <c r="B39" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>113</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>119</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>121</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>124</v>
       </c>
       <c r="B47" t="s">
         <v>125</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>127</v>
       </c>
       <c r="B48" t="s">
         <v>128</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>130</v>
       </c>
       <c r="B49" t="s">
         <v>131</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>133</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>136</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>140</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>150</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>156</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -1894,51 +1894,51 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>170</v>
       </c>
       <c r="B69" t="s">
         <v>171</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>174</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>176</v>
       </c>
       <c r="B71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>179</v>
       </c>
       <c r="B72" t="s">
         <v>180</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -1954,18 +1954,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>186</v>
       </c>
       <c r="B75" t="s">
         <v>187</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>195</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>197</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>199</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>201</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>211</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>217</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>219</v>
       </c>
@@ -2101,18 +2101,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>221</v>
       </c>
       <c r="B93" t="s">
         <v>222</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>228</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>230</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>232</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>248</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -2232,106 +2232,106 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>254</v>
       </c>
       <c r="B109" t="s">
         <v>255</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>257</v>
       </c>
       <c r="B110" t="s">
         <v>258</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>260</v>
       </c>
       <c r="B111" t="s">
         <v>261</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>263</v>
       </c>
       <c r="B112" t="s">
         <v>264</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>266</v>
       </c>
       <c r="B113" t="s">
         <v>267</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>269</v>
       </c>
       <c r="B114" t="s">
         <v>270</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>272</v>
       </c>
       <c r="B115" t="s">
         <v>273</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>275</v>
       </c>
       <c r="B116" t="s">
         <v>276</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>278</v>
       </c>
       <c r="B117" t="s">
         <v>279</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>281</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -2347,14 +2347,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>284</v>
       </c>
       <c r="B120" t="s">
         <v>285</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>286</v>
       </c>
     </row>

--- a/data/States.xlsx
+++ b/data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t>戦闘不能</t>
   </si>
@@ -133,10 +133,16 @@
     <t>Stan</t>
   </si>
   <si>
+    <t>Stun</t>
+  </si>
+  <si>
     <t>は怯んだ！</t>
   </si>
   <si>
     <t>I'm scared!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flinched!</t>
   </si>
   <si>
     <t>敏感</t>
@@ -1365,997 +1371,1003 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/States.xlsx
+++ b/data/States.xlsx
@@ -15,39 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>戦闘不能</t>
   </si>
   <si>
-    <t>Incapable of combat</t>
-  </si>
-  <si>
     <t>Unable to Fight</t>
   </si>
   <si>
     <t>は倒れた！</t>
   </si>
   <si>
-    <t>Is down!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> fell!</t>
   </si>
   <si>
     <t>を倒した！</t>
   </si>
   <si>
-    <t>I defeated you!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is defeated!</t>
   </si>
   <si>
     <t>は立ち上がった！</t>
-  </si>
-  <si>
-    <t>Got up!</t>
   </si>
   <si>
     <t xml:space="preserve"> got up!</t>
@@ -64,45 +52,30 @@
     <t>防御</t>
   </si>
   <si>
-    <t>defense</t>
-  </si>
-  <si>
     <t>Defend</t>
   </si>
   <si>
     <t>不死身</t>
   </si>
   <si>
-    <t>invulnerability</t>
-  </si>
-  <si>
     <t>Invincible</t>
   </si>
   <si>
     <t>催淫毒</t>
   </si>
   <si>
-    <t>Aphrodisiac Poison</t>
-  </si>
-  <si>
     <t>Aphrodisiac</t>
   </si>
   <si>
     <t>は催淫毒にかかった！</t>
   </si>
   <si>
-    <t>I Got Aphrodisiac!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is affected by aphrodisiacs!</t>
   </si>
   <si>
     <t>に毒をかけた！</t>
   </si>
   <si>
-    <t>Poisoned!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> has been poisioned!</t>
   </si>
   <si>
@@ -115,9 +88,6 @@
     <t>は前が見えなくなった！</t>
   </si>
   <si>
-    <t>I can't see the front!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> can't see!</t>
   </si>
   <si>
@@ -130,180 +100,120 @@
     <t>スタン</t>
   </si>
   <si>
-    <t>Stan</t>
-  </si>
-  <si>
     <t>Stun</t>
   </si>
   <si>
     <t>は怯んだ！</t>
   </si>
   <si>
-    <t>I'm scared!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> flinched!</t>
   </si>
   <si>
     <t>敏感</t>
   </si>
   <si>
-    <t>sensitive</t>
-  </si>
-  <si>
     <t>Sensitive</t>
   </si>
   <si>
     <t>は敏感になった！</t>
   </si>
   <si>
-    <t>Became sensitive!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> became sensitive!</t>
   </si>
   <si>
     <t>は感じやすくなった！</t>
   </si>
   <si>
-    <t>It became easy to feel!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is really sensitive!</t>
   </si>
   <si>
     <t>拘束</t>
   </si>
   <si>
-    <t>restraint</t>
-  </si>
-  <si>
     <t>Bound</t>
   </si>
   <si>
     <t>は拘束された！</t>
   </si>
   <si>
-    <t>Was detained!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> has been bound!</t>
   </si>
   <si>
     <t>を拘束した！</t>
   </si>
   <si>
-    <t>I've been restrained!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> was bound!</t>
   </si>
   <si>
     <t>は拘束から逃れた！</t>
   </si>
   <si>
-    <t>Escaped restraint!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> broke free!</t>
   </si>
   <si>
     <t>魅了</t>
   </si>
   <si>
-    <t>captivate</t>
-  </si>
-  <si>
     <t>Charm</t>
   </si>
   <si>
     <t>は魅了された！</t>
   </si>
   <si>
-    <t>Was fascinated!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> has been charmed!</t>
   </si>
   <si>
     <t>を魅了した！</t>
   </si>
   <si>
-    <t>I was fascinated!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> was charmed!</t>
   </si>
   <si>
     <t>は魅了されている・・・</t>
   </si>
   <si>
-    <t>Is fascinated...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is under the enemy's spell...</t>
   </si>
   <si>
     <t>脱力</t>
   </si>
   <si>
-    <t>exhaustion</t>
-  </si>
-  <si>
     <t>Exhaustion</t>
   </si>
   <si>
     <t>は力が抜けた・・・</t>
   </si>
   <si>
-    <t>I lost my strength.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lost all strength...</t>
   </si>
   <si>
     <t>諦めた</t>
   </si>
   <si>
-    <t>Gave</t>
-  </si>
-  <si>
     <t>Give in</t>
   </si>
   <si>
     <t>は抵抗する意志を無くした・・・</t>
   </si>
   <si>
-    <t>Has lost the will to resist...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> has lost the will to resist...</t>
   </si>
   <si>
     <t>興奮</t>
   </si>
   <si>
-    <t>excitement</t>
-  </si>
-  <si>
     <t>Arousal</t>
   </si>
   <si>
     <t>は興奮が止められなくなった！</t>
   </si>
   <si>
-    <t>The excitement is unstoppable!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> couldn't control their arousal!</t>
   </si>
   <si>
     <t>は興奮している・・・</t>
   </si>
   <si>
-    <t>I'm excited...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is very aroused...</t>
   </si>
   <si>
@@ -331,36 +241,24 @@
     <t>発情</t>
   </si>
   <si>
-    <t>rut</t>
-  </si>
-  <si>
     <t>Lust</t>
   </si>
   <si>
     <t>は発情してしまった・・・</t>
   </si>
   <si>
-    <t>I've got estrus...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is acting lustfully...</t>
   </si>
   <si>
     <t>敗北の記憶</t>
   </si>
   <si>
-    <t>Memories of defeat</t>
-  </si>
-  <si>
     <t>Remembering Defeat</t>
   </si>
   <si>
     <t>アイリンバフ</t>
   </si>
   <si>
-    <t>Aylin Buff</t>
-  </si>
-  <si>
     <t>Iren Buff</t>
   </si>
   <si>
@@ -391,63 +289,42 @@
     <t>警戒</t>
   </si>
   <si>
-    <t>caution</t>
-  </si>
-  <si>
     <t>Cautious</t>
   </si>
   <si>
     <t>は警戒状態になった！</t>
   </si>
   <si>
-    <t>I'm on alert!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is on alert!</t>
   </si>
   <si>
     <t>鬼神</t>
   </si>
   <si>
-    <t>demon</t>
-  </si>
-  <si>
     <t>Demon</t>
   </si>
   <si>
     <t>は鬼神の力を宿した！</t>
   </si>
   <si>
-    <t>I harbored the power of the demon god!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ハードモード</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>Hard Mode</t>
   </si>
   <si>
     <t>集中</t>
   </si>
   <si>
-    <t>concentration</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
     <t>は集中力を高めた・・・</t>
   </si>
   <si>
-    <t>has increased concentration...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> increased their concentration...</t>
   </si>
   <si>
@@ -538,36 +415,24 @@
     <t>ぬるぬる</t>
   </si>
   <si>
-    <t>according to</t>
-  </si>
-  <si>
     <t>Slimy</t>
   </si>
   <si>
     <t>はぬるぬるになった！</t>
   </si>
   <si>
-    <t>It's getting slimy!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> became all slimy!</t>
   </si>
   <si>
     <t>冷静</t>
   </si>
   <si>
-    <t>composure</t>
-  </si>
-  <si>
     <t>Calm</t>
   </si>
   <si>
     <t>は冷静になった！</t>
   </si>
   <si>
-    <t>I'm sober!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> became sober!</t>
   </si>
   <si>
@@ -586,9 +451,6 @@
     <t>は力が抜けてしまった・・・</t>
   </si>
   <si>
-    <t>I've lost my strength...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lost their strength!</t>
   </si>
   <si>
@@ -691,9 +553,6 @@
     <t>は催淫毒に犯された！</t>
   </si>
   <si>
-    <t>Was By Aphrodisiac!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> was affected by the aphrodisiac!</t>
   </si>
   <si>
@@ -715,6 +574,12 @@
     <t>Easy mode</t>
   </si>
   <si>
+    <t>力溜め</t>
+  </si>
+  <si>
+    <t>は力を溜めている・・・</t>
+  </si>
+  <si>
     <t>～レベル用ステート～</t>
   </si>
   <si>
@@ -790,81 +655,54 @@
     <t>射精1回目</t>
   </si>
   <si>
-    <t>Ejaculation 1st</t>
-  </si>
-  <si>
     <t>1st Climax</t>
   </si>
   <si>
     <t>射精2回目</t>
   </si>
   <si>
-    <t>Ejaculation 2nd</t>
-  </si>
-  <si>
     <t>2nd Climax</t>
   </si>
   <si>
     <t>射精3回目</t>
   </si>
   <si>
-    <t>3rd ejaculation</t>
-  </si>
-  <si>
     <t>3rd Climax</t>
   </si>
   <si>
     <t>勃起</t>
   </si>
   <si>
-    <t>erection</t>
-  </si>
-  <si>
     <t>Erect</t>
   </si>
   <si>
     <t>は勃起してしまった・・・</t>
   </si>
   <si>
-    <t>I've erected ...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> has become erect...</t>
   </si>
   <si>
     <t>イキそう</t>
   </si>
   <si>
-    <t>Let's be Iki.</t>
-  </si>
-  <si>
     <t>Edge</t>
   </si>
   <si>
     <t>はイキそうになった・・・</t>
   </si>
   <si>
-    <t>I'm almost excited...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is on the edge...</t>
   </si>
   <si>
     <t>バランスを崩す</t>
   </si>
   <si>
-    <t>They lose their balance</t>
-  </si>
-  <si>
     <t>Loss of Balance</t>
   </si>
   <si>
     <t>はバランスを崩した！</t>
   </si>
   <si>
-    <t>I've lost my balance!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lost their balance!</t>
   </si>
   <si>
@@ -880,10 +718,31 @@
     <t>ミニマム</t>
   </si>
   <si>
-    <t>minimum</t>
-  </si>
-  <si>
     <t>Minimum</t>
+  </si>
+  <si>
+    <t>攻撃のみ大幅UP</t>
+  </si>
+  <si>
+    <t>は攻撃力が大幅に上がった！</t>
+  </si>
+  <si>
+    <t>技巧のみUP</t>
+  </si>
+  <si>
+    <t>は技巧が上がった！</t>
+  </si>
+  <si>
+    <t>防御UP</t>
+  </si>
+  <si>
+    <t>は防御力が上がった！</t>
+  </si>
+  <si>
+    <t>精神力UP</t>
+  </si>
+  <si>
+    <t>は精神力が上がった！</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1081,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,1144 +1089,1014 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>97</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>107</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B59" t="s">
         <v>115</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B60" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>119</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>120</v>
       </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B63" t="s">
         <v>121</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>122</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>123</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B65" t="s">
         <v>124</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B66" t="s">
         <v>126</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>127</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B67" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>129</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B68" t="s">
         <v>130</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>133</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>135</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B71" t="s">
         <v>136</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B72" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>139</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B73" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B76" t="s">
         <v>146</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B80" t="s">
         <v>154</v>
       </c>
-      <c r="B58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>155</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B81" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>157</v>
       </c>
-      <c r="B60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B82" t="s">
         <v>158</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>160</v>
       </c>
-      <c r="B62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="B84" t="s">
         <v>161</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>163</v>
       </c>
-      <c r="B64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B86" t="s">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>175</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>179</v>
       </c>
-      <c r="D71" t="s">
+      <c r="B94" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>181</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B95" t="s">
         <v>182</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="B96" t="s">
         <v>184</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>186</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B99" t="s">
         <v>188</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>189</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B100" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>191</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B101" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>193</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B102" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>195</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B103" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>197</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>199</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B105" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>201</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>203</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B107" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>205</v>
       </c>
-      <c r="B83" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="B108" t="s">
         <v>206</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B109" t="s">
         <v>208</v>
       </c>
-      <c r="B85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>209</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B110" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>211</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>213</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B112" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>215</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B113" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>217</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B114" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>219</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B115" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>221</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B116" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>223</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B117" t="s">
         <v>224</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="B118" t="s">
         <v>226</v>
       </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B119" t="s">
         <v>228</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B120" t="s">
         <v>230</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>232</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B122" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>234</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>236</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>238</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>240</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>242</v>
-      </c>
-      <c r="B102" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>250</v>
-      </c>
-      <c r="B106" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>254</v>
-      </c>
-      <c r="B108" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>256</v>
-      </c>
-      <c r="B109" t="s">
-        <v>257</v>
-      </c>
-      <c r="D109" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>259</v>
-      </c>
-      <c r="B110" t="s">
-        <v>260</v>
-      </c>
-      <c r="D110" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>262</v>
-      </c>
-      <c r="B111" t="s">
-        <v>263</v>
-      </c>
-      <c r="D111" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>265</v>
-      </c>
-      <c r="B112" t="s">
-        <v>266</v>
-      </c>
-      <c r="D112" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>268</v>
-      </c>
-      <c r="B113" t="s">
-        <v>269</v>
-      </c>
-      <c r="D113" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>271</v>
-      </c>
-      <c r="B114" t="s">
-        <v>272</v>
-      </c>
-      <c r="D114" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>274</v>
-      </c>
-      <c r="B115" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" t="s">
-        <v>278</v>
-      </c>
-      <c r="D116" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B117" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>283</v>
-      </c>
-      <c r="B118" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>285</v>
-      </c>
-      <c r="B119" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" t="s">
-        <v>287</v>
-      </c>
-      <c r="D120" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
